--- a/static/json/kszl/data.xlsx
+++ b/static/json/kszl/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>项目</t>
   </si>
@@ -30,9 +30,6 @@
     <t>适用考试年份</t>
   </si>
   <si>
-    <t>适用考试阶段</t>
-  </si>
-  <si>
     <t>下载地址</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>题库模考第二套卷行测原版</t>
   </si>
   <si>
-    <t>icon-zip</t>
-  </si>
-  <si>
-    <t>笔试</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1cziCxsa6DxlQeAXdfBGhWA</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>省考大揭秘手册加水印</t>
   </si>
   <si>
-    <t>icon-pdf</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/1tssw_gFBAZIUHVLn5kPD4w</t>
   </si>
   <si>
@@ -118,6 +106,42 @@
   </si>
   <si>
     <t>fileaddress</t>
+  </si>
+  <si>
+    <t>filedetail</t>
+  </si>
+  <si>
+    <t>文件详细</t>
+  </si>
+  <si>
+    <t>适用考试阶段(0笔试,1面试)</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>辅导法法说
+发的所发生的如风过得很</t>
+  </si>
+  <si>
+    <t>个的覅偶发的何光荣
+工本费反倒是</t>
+  </si>
+  <si>
+    <t>GV的冯绍峰
+各部分的份上</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>dasdsadas</t>
+  </si>
+  <si>
+    <t>大师法索多法说</t>
+  </si>
+  <si>
+    <t>发生的萨达撒</t>
   </si>
 </sst>
 </file>
@@ -175,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,6 +222,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDADBDA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFDADBDA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -206,7 +267,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -222,6 +283,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,35 +609,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,210 +648,272 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="66">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
         <v>2019</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="66">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
+    </row>
+    <row r="8" spans="1:7" ht="66">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
         <v>2019</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
         <v>2019</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
         <v>2019</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
         <v>2019</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
         <v>2019</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
         <v>2019</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
